--- a/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForHypertension.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForHypertension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\git\RecipeScrapingHackathon2023\Team02_NinjaScrapers_2023\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83DD4D6-CA20-4F24-A8B9-F0ECD359D6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B6C1FB-4466-4F0B-A457-D21E3704BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="1523">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -10123,6 +10123,9 @@
   <si>
     <t xml:space="preserve">High Fiber Recipes
 </t>
+  </si>
+  <si>
+    <t>No of Recipes</t>
   </si>
 </sst>
 </file>
@@ -10443,10 +10446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:QE11"/>
+  <dimension ref="A1:QE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="HK10" sqref="HK10"/>
+    <sheetView tabSelected="1" topLeftCell="QB1" workbookViewId="0">
+      <selection activeCell="QU1" sqref="QU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10456,6 +10459,680 @@
     <col min="377" max="377" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:447" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>6</v>
+      </c>
+      <c r="O1">
+        <v>7</v>
+      </c>
+      <c r="Q1">
+        <v>8</v>
+      </c>
+      <c r="S1">
+        <v>9</v>
+      </c>
+      <c r="U1">
+        <v>10</v>
+      </c>
+      <c r="W1">
+        <v>11</v>
+      </c>
+      <c r="Y1">
+        <v>12</v>
+      </c>
+      <c r="AA1">
+        <v>13</v>
+      </c>
+      <c r="AC1">
+        <v>14</v>
+      </c>
+      <c r="AE1">
+        <v>15</v>
+      </c>
+      <c r="AG1">
+        <v>16</v>
+      </c>
+      <c r="AI1">
+        <v>17</v>
+      </c>
+      <c r="AK1">
+        <v>18</v>
+      </c>
+      <c r="AM1">
+        <v>19</v>
+      </c>
+      <c r="AO1">
+        <v>20</v>
+      </c>
+      <c r="AQ1">
+        <v>21</v>
+      </c>
+      <c r="AS1">
+        <v>22</v>
+      </c>
+      <c r="AU1">
+        <v>23</v>
+      </c>
+      <c r="AW1">
+        <v>24</v>
+      </c>
+      <c r="AY1">
+        <v>25</v>
+      </c>
+      <c r="BA1">
+        <v>26</v>
+      </c>
+      <c r="BC1">
+        <v>27</v>
+      </c>
+      <c r="BE1">
+        <v>28</v>
+      </c>
+      <c r="BG1">
+        <v>29</v>
+      </c>
+      <c r="BI1">
+        <v>30</v>
+      </c>
+      <c r="BK1">
+        <v>31</v>
+      </c>
+      <c r="BM1">
+        <v>32</v>
+      </c>
+      <c r="BO1">
+        <v>33</v>
+      </c>
+      <c r="BQ1">
+        <v>34</v>
+      </c>
+      <c r="BS1">
+        <v>35</v>
+      </c>
+      <c r="BU1">
+        <v>36</v>
+      </c>
+      <c r="BW1">
+        <v>37</v>
+      </c>
+      <c r="BY1">
+        <v>38</v>
+      </c>
+      <c r="CA1">
+        <v>39</v>
+      </c>
+      <c r="CC1">
+        <v>40</v>
+      </c>
+      <c r="CE1">
+        <v>41</v>
+      </c>
+      <c r="CG1">
+        <v>42</v>
+      </c>
+      <c r="CI1">
+        <v>43</v>
+      </c>
+      <c r="CK1">
+        <v>44</v>
+      </c>
+      <c r="CM1">
+        <v>45</v>
+      </c>
+      <c r="CO1">
+        <v>46</v>
+      </c>
+      <c r="CQ1">
+        <v>47</v>
+      </c>
+      <c r="CS1">
+        <v>48</v>
+      </c>
+      <c r="CU1">
+        <v>49</v>
+      </c>
+      <c r="CW1">
+        <v>50</v>
+      </c>
+      <c r="CY1">
+        <v>51</v>
+      </c>
+      <c r="DA1">
+        <v>52</v>
+      </c>
+      <c r="DC1">
+        <v>53</v>
+      </c>
+      <c r="DE1">
+        <v>54</v>
+      </c>
+      <c r="DG1">
+        <v>55</v>
+      </c>
+      <c r="DI1">
+        <v>56</v>
+      </c>
+      <c r="DK1">
+        <v>57</v>
+      </c>
+      <c r="DM1">
+        <v>58</v>
+      </c>
+      <c r="DO1">
+        <v>59</v>
+      </c>
+      <c r="DQ1">
+        <v>60</v>
+      </c>
+      <c r="DS1">
+        <v>61</v>
+      </c>
+      <c r="DU1">
+        <v>62</v>
+      </c>
+      <c r="DW1">
+        <v>63</v>
+      </c>
+      <c r="DY1">
+        <v>64</v>
+      </c>
+      <c r="EA1">
+        <v>65</v>
+      </c>
+      <c r="EC1">
+        <v>66</v>
+      </c>
+      <c r="EE1">
+        <v>67</v>
+      </c>
+      <c r="EG1">
+        <v>68</v>
+      </c>
+      <c r="EI1">
+        <v>69</v>
+      </c>
+      <c r="EK1">
+        <v>70</v>
+      </c>
+      <c r="EM1">
+        <v>71</v>
+      </c>
+      <c r="EO1">
+        <v>72</v>
+      </c>
+      <c r="EQ1">
+        <v>73</v>
+      </c>
+      <c r="ES1">
+        <v>74</v>
+      </c>
+      <c r="EU1">
+        <v>75</v>
+      </c>
+      <c r="EW1">
+        <v>76</v>
+      </c>
+      <c r="EY1">
+        <v>77</v>
+      </c>
+      <c r="FA1">
+        <v>78</v>
+      </c>
+      <c r="FC1">
+        <v>79</v>
+      </c>
+      <c r="FE1">
+        <v>80</v>
+      </c>
+      <c r="FG1">
+        <v>81</v>
+      </c>
+      <c r="FI1">
+        <v>82</v>
+      </c>
+      <c r="FK1">
+        <v>83</v>
+      </c>
+      <c r="FM1">
+        <v>84</v>
+      </c>
+      <c r="FO1">
+        <v>85</v>
+      </c>
+      <c r="FQ1">
+        <v>86</v>
+      </c>
+      <c r="FS1">
+        <v>87</v>
+      </c>
+      <c r="FU1">
+        <v>88</v>
+      </c>
+      <c r="FW1">
+        <v>89</v>
+      </c>
+      <c r="FY1">
+        <v>90</v>
+      </c>
+      <c r="GA1">
+        <v>91</v>
+      </c>
+      <c r="GC1">
+        <v>92</v>
+      </c>
+      <c r="GE1">
+        <v>93</v>
+      </c>
+      <c r="GG1">
+        <v>94</v>
+      </c>
+      <c r="GI1">
+        <v>95</v>
+      </c>
+      <c r="GK1">
+        <v>96</v>
+      </c>
+      <c r="GM1">
+        <v>97</v>
+      </c>
+      <c r="GO1">
+        <v>98</v>
+      </c>
+      <c r="GQ1">
+        <v>99</v>
+      </c>
+      <c r="GS1">
+        <v>100</v>
+      </c>
+      <c r="GU1">
+        <v>101</v>
+      </c>
+      <c r="GW1">
+        <v>102</v>
+      </c>
+      <c r="GY1">
+        <v>103</v>
+      </c>
+      <c r="HA1">
+        <v>104</v>
+      </c>
+      <c r="HC1">
+        <v>105</v>
+      </c>
+      <c r="HE1">
+        <v>106</v>
+      </c>
+      <c r="HG1">
+        <v>107</v>
+      </c>
+      <c r="HI1">
+        <v>108</v>
+      </c>
+      <c r="HK1">
+        <v>109</v>
+      </c>
+      <c r="HM1">
+        <v>110</v>
+      </c>
+      <c r="HO1">
+        <v>111</v>
+      </c>
+      <c r="HQ1">
+        <v>112</v>
+      </c>
+      <c r="HS1">
+        <v>113</v>
+      </c>
+      <c r="HU1">
+        <v>114</v>
+      </c>
+      <c r="HW1">
+        <v>115</v>
+      </c>
+      <c r="HY1">
+        <v>116</v>
+      </c>
+      <c r="IA1">
+        <v>117</v>
+      </c>
+      <c r="IC1">
+        <v>118</v>
+      </c>
+      <c r="IE1">
+        <v>119</v>
+      </c>
+      <c r="IG1">
+        <v>120</v>
+      </c>
+      <c r="II1">
+        <v>121</v>
+      </c>
+      <c r="IK1">
+        <v>122</v>
+      </c>
+      <c r="IM1">
+        <v>123</v>
+      </c>
+      <c r="IO1">
+        <v>124</v>
+      </c>
+      <c r="IQ1">
+        <v>125</v>
+      </c>
+      <c r="IS1">
+        <v>126</v>
+      </c>
+      <c r="IU1">
+        <v>127</v>
+      </c>
+      <c r="IW1">
+        <v>128</v>
+      </c>
+      <c r="IY1">
+        <v>129</v>
+      </c>
+      <c r="JA1">
+        <v>130</v>
+      </c>
+      <c r="JC1">
+        <v>131</v>
+      </c>
+      <c r="JE1">
+        <v>132</v>
+      </c>
+      <c r="JG1">
+        <v>133</v>
+      </c>
+      <c r="JI1">
+        <v>134</v>
+      </c>
+      <c r="JK1">
+        <v>135</v>
+      </c>
+      <c r="JM1">
+        <v>136</v>
+      </c>
+      <c r="JO1">
+        <v>137</v>
+      </c>
+      <c r="JQ1">
+        <v>138</v>
+      </c>
+      <c r="JS1">
+        <v>139</v>
+      </c>
+      <c r="JU1">
+        <v>140</v>
+      </c>
+      <c r="JW1">
+        <v>141</v>
+      </c>
+      <c r="JY1">
+        <v>142</v>
+      </c>
+      <c r="KA1">
+        <v>143</v>
+      </c>
+      <c r="KC1">
+        <v>144</v>
+      </c>
+      <c r="KE1">
+        <v>145</v>
+      </c>
+      <c r="KG1">
+        <v>146</v>
+      </c>
+      <c r="KI1">
+        <v>147</v>
+      </c>
+      <c r="KK1">
+        <v>148</v>
+      </c>
+      <c r="KM1">
+        <v>149</v>
+      </c>
+      <c r="KO1">
+        <v>150</v>
+      </c>
+      <c r="KQ1">
+        <v>151</v>
+      </c>
+      <c r="KS1">
+        <v>152</v>
+      </c>
+      <c r="KU1">
+        <v>153</v>
+      </c>
+      <c r="KW1">
+        <v>154</v>
+      </c>
+      <c r="KY1">
+        <v>155</v>
+      </c>
+      <c r="LA1">
+        <v>156</v>
+      </c>
+      <c r="LC1">
+        <v>157</v>
+      </c>
+      <c r="LE1">
+        <v>158</v>
+      </c>
+      <c r="LG1">
+        <v>159</v>
+      </c>
+      <c r="LI1">
+        <v>160</v>
+      </c>
+      <c r="LK1">
+        <v>161</v>
+      </c>
+      <c r="LM1">
+        <v>162</v>
+      </c>
+      <c r="LO1">
+        <v>163</v>
+      </c>
+      <c r="LQ1">
+        <v>164</v>
+      </c>
+      <c r="LS1">
+        <v>165</v>
+      </c>
+      <c r="LU1">
+        <v>166</v>
+      </c>
+      <c r="LW1">
+        <v>167</v>
+      </c>
+      <c r="LY1">
+        <v>168</v>
+      </c>
+      <c r="MA1">
+        <v>169</v>
+      </c>
+      <c r="MC1">
+        <v>170</v>
+      </c>
+      <c r="ME1">
+        <v>171</v>
+      </c>
+      <c r="MG1">
+        <v>172</v>
+      </c>
+      <c r="MI1">
+        <v>173</v>
+      </c>
+      <c r="MK1">
+        <v>174</v>
+      </c>
+      <c r="MM1">
+        <v>175</v>
+      </c>
+      <c r="MO1">
+        <v>176</v>
+      </c>
+      <c r="MQ1">
+        <v>177</v>
+      </c>
+      <c r="MS1">
+        <v>178</v>
+      </c>
+      <c r="MU1">
+        <v>179</v>
+      </c>
+      <c r="MW1">
+        <v>180</v>
+      </c>
+      <c r="MY1">
+        <v>181</v>
+      </c>
+      <c r="NA1">
+        <v>182</v>
+      </c>
+      <c r="NC1">
+        <v>183</v>
+      </c>
+      <c r="NE1">
+        <v>184</v>
+      </c>
+      <c r="NG1">
+        <v>185</v>
+      </c>
+      <c r="NI1">
+        <v>186</v>
+      </c>
+      <c r="NK1">
+        <v>187</v>
+      </c>
+      <c r="NM1">
+        <v>188</v>
+      </c>
+      <c r="NO1">
+        <v>189</v>
+      </c>
+      <c r="NQ1">
+        <v>190</v>
+      </c>
+      <c r="NS1">
+        <v>191</v>
+      </c>
+      <c r="NU1">
+        <v>192</v>
+      </c>
+      <c r="NW1">
+        <v>193</v>
+      </c>
+      <c r="NY1">
+        <v>194</v>
+      </c>
+      <c r="OA1">
+        <v>195</v>
+      </c>
+      <c r="OC1">
+        <v>196</v>
+      </c>
+      <c r="OE1">
+        <v>197</v>
+      </c>
+      <c r="OG1">
+        <v>198</v>
+      </c>
+      <c r="OI1">
+        <v>199</v>
+      </c>
+      <c r="OK1">
+        <v>200</v>
+      </c>
+      <c r="OM1">
+        <v>201</v>
+      </c>
+      <c r="OO1">
+        <v>202</v>
+      </c>
+      <c r="OQ1">
+        <v>203</v>
+      </c>
+      <c r="OS1">
+        <v>204</v>
+      </c>
+      <c r="OU1">
+        <v>205</v>
+      </c>
+      <c r="OW1">
+        <v>206</v>
+      </c>
+      <c r="OY1">
+        <v>207</v>
+      </c>
+      <c r="PA1">
+        <v>208</v>
+      </c>
+      <c r="PC1">
+        <v>209</v>
+      </c>
+      <c r="PE1">
+        <v>210</v>
+      </c>
+      <c r="PG1">
+        <v>211</v>
+      </c>
+      <c r="PI1">
+        <v>212</v>
+      </c>
+      <c r="PK1">
+        <v>213</v>
+      </c>
+      <c r="PM1">
+        <v>214</v>
+      </c>
+      <c r="PO1">
+        <v>215</v>
+      </c>
+      <c r="PQ1">
+        <v>216</v>
+      </c>
+      <c r="PS1">
+        <v>217</v>
+      </c>
+      <c r="PU1">
+        <v>218</v>
+      </c>
+      <c r="PW1">
+        <v>219</v>
+      </c>
+      <c r="PY1">
+        <v>220</v>
+      </c>
+      <c r="QA1">
+        <v>221</v>
+      </c>
+      <c r="QC1">
+        <v>222</v>
+      </c>
+      <c r="QE1">
+        <v>223</v>
+      </c>
+    </row>
     <row r="2" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
